--- a/run/output/iecodebook/auto_renaming.xlsx
+++ b/run/output/iecodebook/auto_renaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inspiron\Desktop\DIME\practice\iecodebook_practice\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887EC5C4-A0C0-48BB-8C5B-424436895E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C83A48-82CB-41AC-B11F-589F43B65540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
   <si>
     <t>list_name</t>
   </si>
@@ -102,12 +102,6 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -445,6 +439,12 @@
   </si>
   <si>
     <t>Make</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>car_mpg</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -802,38 +802,38 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -841,376 +841,376 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I5" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1303,39 +1303,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
